--- a/Data_Ryan/FX.xlsx
+++ b/Data_Ryan/FX.xlsx
@@ -33046,8 +33046,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c147db1bbda47126d2bbd0d2cfb4aefd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63688392c405768dda53d61ddf15ff6b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97155ece4e73437d6ac9e8c2b521dba">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18d81164747ea7b7c52960c73b4ce974" ns2:_="" ns3:_="">
     <xsd:import namespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
     <xsd:import namespace="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
     <xsd:element name="properties">
@@ -33064,6 +33064,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -33109,6 +33110,13 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -33247,22 +33255,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB983DF2-AA58-4819-A329-277F3B90DEC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
-    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9D525E-E0E2-47F4-8428-C8DD84F1845C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
